--- a/NformTester/NformTester/Keywordscripts/900.20.30_Webpageview.xlsx
+++ b/NformTester/NformTester/Keywordscripts/900.20.30_Webpageview.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="15" windowWidth="15480" windowHeight="9510"/>
@@ -1204,12 +1204,12 @@
     <definedName name="Pause">'Form DataValDepend'!$CD$1</definedName>
     <definedName name="PauseCol">'Form DataValDepend'!$CD:$CD</definedName>
   </definedNames>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7298" uniqueCount="820">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7298" uniqueCount="822">
   <si>
     <t>FormLogin_to_LiebertR_Nform</t>
   </si>
@@ -3687,6 +3687,14 @@
   <si>
     <t>Visible</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>$NAME_SearchStart_0$</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>$NAME_SearchStart_0$</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -3732,6 +3740,7 @@
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -3777,6 +3786,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -3947,7 +3957,7 @@
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Hyperlink 2" xfId="3"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="1"/>
     <cellStyle name="常规 2 2" xfId="2"/>
     <cellStyle name="常规 2 2 2" xfId="4"/>
@@ -4394,7 +4404,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -4680,8 +4690,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I33" sqref="I33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -5019,8 +5029,8 @@
       <c r="H11" s="6">
         <v>2</v>
       </c>
-      <c r="I11" s="6" t="s">
-        <v>812</v>
+      <c r="I11" s="19" t="s">
+        <v>820</v>
       </c>
       <c r="J11" s="6"/>
       <c r="K11" s="6"/>
@@ -5448,8 +5458,8 @@
       <c r="H26" s="6">
         <v>2</v>
       </c>
-      <c r="I26" s="6" t="s">
-        <v>812</v>
+      <c r="I26" s="19" t="s">
+        <v>821</v>
       </c>
       <c r="J26" s="6"/>
       <c r="K26" s="6"/>
